--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
@@ -19,7 +19,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -544,15 +655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +767,121 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,70 +890,70 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1840739479045568</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.004888147156075056</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3764958631127727</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.006553107315569393</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01229781478676158</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08985332160433271</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01612961897873387</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.08359248216166802</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00628612020601364</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001973551723537322</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03013784694108871</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04285535568245388</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.04181587242442308</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001182307194188273</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.06857420207279603</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00373400433679849</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -755,18 +977,129 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01496852143654213</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0009177150235739518</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01367019993811446</v>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0.1553424731666035</v>
+      </c>
+      <c r="AP2">
+        <v>0.07686576307156756</v>
+      </c>
+      <c r="AQ2">
+        <v>0.08245014110861879</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0.01038295620345634</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0.08177402200075183</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0.09659420504113091</v>
+      </c>
+      <c r="AX2">
+        <v>0.01260606461390749</v>
+      </c>
+      <c r="AY2">
+        <v>0.02002924915813354</v>
+      </c>
+      <c r="AZ2">
+        <v>0.04006773326525984</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0.1149612363622562</v>
+      </c>
+      <c r="BC2">
+        <v>0.03123474053737825</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0.08549027244867853</v>
+      </c>
+      <c r="BF2">
+        <v>0.01165201767686136</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0.1458929965353242</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0.007370260607452575</v>
+      </c>
+      <c r="BK2">
+        <v>0.003335338403464044</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0.001770165424665496</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0.008852721462179271</v>
+      </c>
+      <c r="BT2">
+        <v>0.01332764291231029</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:72">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,67 +1108,67 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2467766378573157</v>
+        <v>0.1696976274938467</v>
       </c>
       <c r="E3">
-        <v>0.04840190042864716</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2807118521029256</v>
+        <v>0.158840696577795</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.08142351270852362</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.08999424967923426</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01220121949304651</v>
       </c>
       <c r="J3">
-        <v>0.1466123820096575</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001694929848378669</v>
+        <v>0.007515901505345026</v>
       </c>
       <c r="L3">
-        <v>0.05868801869135296</v>
+        <v>0.1267313826094104</v>
       </c>
       <c r="M3">
-        <v>0.06400157103138875</v>
+        <v>0.01710095874127868</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.07632834857764359</v>
       </c>
       <c r="P3">
-        <v>0.0008299049620511932</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.008403389333284368</v>
+        <v>0.06644706233594842</v>
       </c>
       <c r="R3">
-        <v>0.03958261097696213</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.001503302946873952</v>
       </c>
       <c r="T3">
-        <v>0.02146749552119218</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003837642825463933</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.06065091269928763</v>
+        <v>0.01313647544367044</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.04863710912644818</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -850,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0285587871742746</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -859,21 +1192,132 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.01178833817675669</v>
       </c>
       <c r="AG3">
-        <v>0.008804220313349856</v>
+        <v>0.01347174800378605</v>
       </c>
       <c r="AH3">
-        <v>0.002646728595011475</v>
+        <v>0.02742928382416342</v>
       </c>
       <c r="AI3">
-        <v>0.006889802803731029</v>
+        <v>0.04919399558195449</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:72">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,34 +1326,34 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3073510839212662</v>
+        <v>0.1365877672855798</v>
       </c>
       <c r="E4">
-        <v>0.1152119330904082</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2780912085327764</v>
+        <v>0.2407479909959567</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.03384794915191904</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0005950318681600883</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01829582275509484</v>
       </c>
       <c r="J4">
-        <v>0.1015649486928388</v>
+        <v>0.04568861219415361</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.04376993355701956</v>
       </c>
       <c r="L4">
-        <v>0.05613865146776713</v>
+        <v>0.004861378546085921</v>
       </c>
       <c r="M4">
-        <v>0.02919532576587364</v>
+        <v>0.128083265891996</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -918,40 +1362,40 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.006612019163512862</v>
+        <v>0.00888561626724761</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.07058331034773964</v>
       </c>
       <c r="R4">
-        <v>0.03658072184190128</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.02639869407760254</v>
       </c>
       <c r="T4">
-        <v>0.0009052588505850816</v>
+        <v>0.04063997900864294</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.004731757276329008</v>
+        <v>0.00721207259882944</v>
       </c>
       <c r="W4">
-        <v>0.05456028425090723</v>
+        <v>0.06902320887677006</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.08662357707893077</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.001151195053382077</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0004357973713533363</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -966,21 +1410,132 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0007344030203426493</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.008020660491339458</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0003017436341522518</v>
+        <v>0.03656879707353614</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:72">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3000699056459648</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02532621130935597</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3307099774348472</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00691933352973615</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1007,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1123128744092938</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02346186399730983</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02457533292337483</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03682011534197862</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1025,31 +1580,31 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.007476131166931955</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.01577484800445179</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.009300588044474714</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.005115597777758535</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.05752542468838939</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.000901625148736894</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1064,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002593827725318765</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1076,18 +1631,129 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.02307032673162802</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0118934095924323</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.006152606528016316</v>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0.1925826122018106</v>
+      </c>
+      <c r="AP5">
+        <v>0.01426529213003331</v>
+      </c>
+      <c r="AQ5">
+        <v>0.1314608809117268</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0.02761197644760869</v>
+      </c>
+      <c r="AT5">
+        <v>0.006043347002523813</v>
+      </c>
+      <c r="AU5">
+        <v>0.08957763228388665</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0.04406487520743311</v>
+      </c>
+      <c r="AX5">
+        <v>0.06213640888849372</v>
+      </c>
+      <c r="AY5">
+        <v>0.0004248753830778632</v>
+      </c>
+      <c r="AZ5">
+        <v>0.01114351736925066</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0.08762450390664678</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.008719312819930616</v>
+      </c>
+      <c r="BE5">
+        <v>0.06901012660669155</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0.1287315854216451</v>
+      </c>
+      <c r="BI5">
+        <v>0.03532180906734078</v>
+      </c>
+      <c r="BJ5">
+        <v>0.02702856889682855</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0.01549473261274082</v>
+      </c>
+      <c r="BN5">
+        <v>0.003538691000288544</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0.005014952911764676</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0.01047149872131023</v>
+      </c>
+      <c r="BT5">
+        <v>0.02973280020896708</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:72">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,55 +1762,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2810248025142754</v>
+        <v>0.1974717816925822</v>
       </c>
       <c r="E6">
-        <v>0.03879180903681526</v>
+        <v>0.02196850484777601</v>
       </c>
       <c r="F6">
-        <v>0.2929957566934486</v>
+        <v>0.2340110100087973</v>
       </c>
       <c r="G6">
-        <v>0.0004421881255380727</v>
+        <v>0.020863371637321</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01164394181866314</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.006101717662333418</v>
       </c>
       <c r="J6">
-        <v>0.1378904704786114</v>
+        <v>0.1187519203976605</v>
       </c>
       <c r="K6">
-        <v>0.002916515365691962</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03889824051969022</v>
+        <v>0.03324664102510001</v>
       </c>
       <c r="M6">
-        <v>0.03616584615909497</v>
+        <v>0.05465468549550039</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01493661671022061</v>
       </c>
       <c r="P6">
-        <v>0.01192854509670463</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.00775419466201685</v>
+        <v>0.06634978351260205</v>
       </c>
       <c r="R6">
-        <v>0.0165132124994658</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02008716627596442</v>
+        <v>0.04191949066542688</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.06617908199747724</v>
+        <v>0.1186916972463084</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.006060593962933357</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.01966232471000409</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1171,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.002810463972687881</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1180,16 +1846,127 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.002502821822015993</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01880058575947271</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.007923773511433734</v>
+        <v>0.007950411037958266</v>
       </c>
       <c r="AI6">
-        <v>0.01637452550959477</v>
+        <v>0.02571550756881243</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1199,15 +1976,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +2088,121 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,105 +2211,216 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1840739479045568</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1889620950606318</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5654579581734045</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5720110654889738</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5720110654889738</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5843088802757355</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6741622018800681</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6741622018800681</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.690291820858802</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7738843030204701</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7801704232264837</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7801704232264837</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.782143974950021</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8122818218911096</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8551371775735636</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.8551371775735636</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.8969530499979866</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.898135357192175</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.898135357192175</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.966709559264971</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.966709559264971</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9704435636017695</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.9854120850383117</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9863298000618856</v>
+        <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0.1553424731666035</v>
+      </c>
+      <c r="AP2">
+        <v>0.232208236238171</v>
+      </c>
+      <c r="AQ2">
+        <v>0.3146583773467898</v>
+      </c>
+      <c r="AR2">
+        <v>0.3146583773467898</v>
+      </c>
+      <c r="AS2">
+        <v>0.3250413335502462</v>
+      </c>
+      <c r="AT2">
+        <v>0.3250413335502462</v>
+      </c>
+      <c r="AU2">
+        <v>0.406815355550998</v>
+      </c>
+      <c r="AV2">
+        <v>0.406815355550998</v>
+      </c>
+      <c r="AW2">
+        <v>0.5034095605921289</v>
+      </c>
+      <c r="AX2">
+        <v>0.5160156252060364</v>
+      </c>
+      <c r="AY2">
+        <v>0.5360448743641699</v>
+      </c>
+      <c r="AZ2">
+        <v>0.5761126076294297</v>
+      </c>
+      <c r="BA2">
+        <v>0.5761126076294297</v>
+      </c>
+      <c r="BB2">
+        <v>0.6910738439916859</v>
+      </c>
+      <c r="BC2">
+        <v>0.7223085845290642</v>
+      </c>
+      <c r="BD2">
+        <v>0.7223085845290642</v>
+      </c>
+      <c r="BE2">
+        <v>0.8077988569777428</v>
+      </c>
+      <c r="BF2">
+        <v>0.8194508746546042</v>
+      </c>
+      <c r="BG2">
+        <v>0.8194508746546042</v>
+      </c>
+      <c r="BH2">
+        <v>0.9653438711899285</v>
+      </c>
+      <c r="BI2">
+        <v>0.9653438711899285</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9727141317973811</v>
+      </c>
+      <c r="BK2">
+        <v>0.9760494702008451</v>
+      </c>
+      <c r="BL2">
+        <v>0.9760494702008451</v>
+      </c>
+      <c r="BM2">
+        <v>0.9778196356255106</v>
+      </c>
+      <c r="BN2">
+        <v>0.9778196356255106</v>
+      </c>
+      <c r="BO2">
+        <v>0.9778196356255106</v>
+      </c>
+      <c r="BP2">
+        <v>0.9778196356255106</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9778196356255106</v>
+      </c>
+      <c r="BR2">
+        <v>0.9778196356255106</v>
+      </c>
+      <c r="BS2">
+        <v>0.9866723570876899</v>
+      </c>
+      <c r="BT2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:72">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1430,105 +2429,216 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2467766378573157</v>
+        <v>0.1696976274938467</v>
       </c>
       <c r="E3">
-        <v>0.2951785382859629</v>
+        <v>0.1696976274938467</v>
       </c>
       <c r="F3">
-        <v>0.5758903903888886</v>
+        <v>0.3285383240716417</v>
       </c>
       <c r="G3">
-        <v>0.5758903903888886</v>
+        <v>0.4099618367801653</v>
       </c>
       <c r="H3">
-        <v>0.5758903903888886</v>
+        <v>0.4999560864593996</v>
       </c>
       <c r="I3">
-        <v>0.5758903903888886</v>
+        <v>0.5121573059524461</v>
       </c>
       <c r="J3">
-        <v>0.7225027723985461</v>
+        <v>0.5121573059524461</v>
       </c>
       <c r="K3">
-        <v>0.7241977022469248</v>
+        <v>0.5196732074577911</v>
       </c>
       <c r="L3">
-        <v>0.7828857209382778</v>
+        <v>0.6464045900672015</v>
       </c>
       <c r="M3">
-        <v>0.8468872919696665</v>
+        <v>0.6635055488084802</v>
       </c>
       <c r="N3">
-        <v>0.8468872919696665</v>
+        <v>0.6635055488084802</v>
       </c>
       <c r="O3">
-        <v>0.8468872919696665</v>
+        <v>0.7398338973861238</v>
       </c>
       <c r="P3">
-        <v>0.8477171969317177</v>
+        <v>0.7398338973861238</v>
       </c>
       <c r="Q3">
-        <v>0.856120586265002</v>
+        <v>0.8062809597220723</v>
       </c>
       <c r="R3">
-        <v>0.8957031972419641</v>
+        <v>0.8062809597220723</v>
       </c>
       <c r="S3">
-        <v>0.8957031972419641</v>
+        <v>0.8077842626689462</v>
       </c>
       <c r="T3">
-        <v>0.9171706927631563</v>
+        <v>0.8077842626689462</v>
       </c>
       <c r="U3">
-        <v>0.9171706927631563</v>
+        <v>0.8077842626689462</v>
       </c>
       <c r="V3">
-        <v>0.9210083355886203</v>
+        <v>0.8077842626689462</v>
       </c>
       <c r="W3">
-        <v>0.9816592482879078</v>
+        <v>0.8209207381126167</v>
       </c>
       <c r="X3">
-        <v>0.9816592482879078</v>
+        <v>0.8695578472390648</v>
       </c>
       <c r="Y3">
-        <v>0.9816592482879078</v>
+        <v>0.8695578472390648</v>
       </c>
       <c r="Z3">
-        <v>0.9816592482879078</v>
+        <v>0.8695578472390648</v>
       </c>
       <c r="AA3">
-        <v>0.9816592482879078</v>
+        <v>0.8695578472390648</v>
       </c>
       <c r="AB3">
-        <v>0.9816592482879078</v>
+        <v>0.8695578472390648</v>
       </c>
       <c r="AC3">
-        <v>0.9816592482879078</v>
+        <v>0.8981166344133394</v>
       </c>
       <c r="AD3">
-        <v>0.9816592482879078</v>
+        <v>0.8981166344133394</v>
       </c>
       <c r="AE3">
-        <v>0.9816592482879078</v>
+        <v>0.8981166344133394</v>
       </c>
       <c r="AF3">
-        <v>0.9816592482879078</v>
+        <v>0.9099049725900962</v>
       </c>
       <c r="AG3">
-        <v>0.9904634686012577</v>
+        <v>0.9233767205938822</v>
       </c>
       <c r="AH3">
-        <v>0.9931101971962691</v>
+        <v>0.9508060044180456</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:72">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1537,105 +2647,216 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3073510839212662</v>
+        <v>0.1365877672855798</v>
       </c>
       <c r="E4">
-        <v>0.4225630170116744</v>
+        <v>0.1365877672855798</v>
       </c>
       <c r="F4">
-        <v>0.7006542255444508</v>
+        <v>0.3773357582815365</v>
       </c>
       <c r="G4">
-        <v>0.7006542255444508</v>
+        <v>0.4111837074334556</v>
       </c>
       <c r="H4">
-        <v>0.7006542255444508</v>
+        <v>0.4117787393016156</v>
       </c>
       <c r="I4">
-        <v>0.7006542255444508</v>
+        <v>0.4300745620567105</v>
       </c>
       <c r="J4">
-        <v>0.8022191742372895</v>
+        <v>0.4757631742508641</v>
       </c>
       <c r="K4">
-        <v>0.8022191742372895</v>
+        <v>0.5195331078078836</v>
       </c>
       <c r="L4">
-        <v>0.8583578257050566</v>
+        <v>0.5243944863539696</v>
       </c>
       <c r="M4">
-        <v>0.8875531514709303</v>
+        <v>0.6524777522459655</v>
       </c>
       <c r="N4">
-        <v>0.8875531514709303</v>
+        <v>0.6524777522459655</v>
       </c>
       <c r="O4">
-        <v>0.8875531514709303</v>
+        <v>0.6524777522459655</v>
       </c>
       <c r="P4">
-        <v>0.8941651706344431</v>
+        <v>0.6613633685132131</v>
       </c>
       <c r="Q4">
-        <v>0.8941651706344431</v>
+        <v>0.7319466788609528</v>
       </c>
       <c r="R4">
-        <v>0.9307458924763444</v>
+        <v>0.7319466788609528</v>
       </c>
       <c r="S4">
-        <v>0.9307458924763444</v>
+        <v>0.7583453729385553</v>
       </c>
       <c r="T4">
-        <v>0.9316511513269295</v>
+        <v>0.7989853519471982</v>
       </c>
       <c r="U4">
-        <v>0.9316511513269295</v>
+        <v>0.7989853519471982</v>
       </c>
       <c r="V4">
-        <v>0.9363829086032586</v>
+        <v>0.8061974245460276</v>
       </c>
       <c r="W4">
-        <v>0.9909431928541658</v>
+        <v>0.8752206334227977</v>
       </c>
       <c r="X4">
-        <v>0.9909431928541658</v>
+        <v>0.9618442105017284</v>
       </c>
       <c r="Y4">
-        <v>0.9909431928541658</v>
+        <v>0.9629954055551105</v>
       </c>
       <c r="Z4">
-        <v>0.9909431928541658</v>
+        <v>0.9629954055551105</v>
       </c>
       <c r="AA4">
-        <v>0.9909431928541658</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AB4">
-        <v>0.9909431928541658</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AC4">
-        <v>0.9909431928541658</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AD4">
-        <v>0.9909431928541658</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AE4">
-        <v>0.9909431928541658</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AF4">
-        <v>0.9916775958745084</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AG4">
-        <v>0.9996982563658479</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AH4">
-        <v>0.9996982563658479</v>
+        <v>0.9634312029264639</v>
       </c>
       <c r="AI4">
         <v>1</v>
       </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:72">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,105 +2865,216 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3000699056459648</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3253961169553208</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.656106094390168</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6630254279199042</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6630254279199042</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6630254279199042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.775338302329198</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7988001663265079</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8233754992498827</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8601956145918613</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8601956145918613</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8601956145918613</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8676717457587932</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8676717457587932</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.8834465937632451</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.8834465937632451</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.8927471818077198</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.8927471818077198</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.8978627795854783</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.9553882042738677</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.9562898294226047</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.9562898294226047</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.9562898294226047</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.9562898294226047</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.9562898294226047</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.9588836571479235</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.9588836571479235</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.9588836571479235</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9588836571479235</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9819539838795515</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9938473934719838</v>
+        <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0.1925826122018106</v>
+      </c>
+      <c r="AP5">
+        <v>0.2068479043318439</v>
+      </c>
+      <c r="AQ5">
+        <v>0.3383087852435708</v>
+      </c>
+      <c r="AR5">
+        <v>0.3383087852435708</v>
+      </c>
+      <c r="AS5">
+        <v>0.3659207616911795</v>
+      </c>
+      <c r="AT5">
+        <v>0.3719641086937033</v>
+      </c>
+      <c r="AU5">
+        <v>0.4615417409775899</v>
+      </c>
+      <c r="AV5">
+        <v>0.4615417409775899</v>
+      </c>
+      <c r="AW5">
+        <v>0.505606616185023</v>
+      </c>
+      <c r="AX5">
+        <v>0.5677430250735167</v>
+      </c>
+      <c r="AY5">
+        <v>0.5681679004565946</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5793114178258453</v>
+      </c>
+      <c r="BA5">
+        <v>0.5793114178258453</v>
+      </c>
+      <c r="BB5">
+        <v>0.6669359217324921</v>
+      </c>
+      <c r="BC5">
+        <v>0.6669359217324921</v>
+      </c>
+      <c r="BD5">
+        <v>0.6756552345524227</v>
+      </c>
+      <c r="BE5">
+        <v>0.7446653611591143</v>
+      </c>
+      <c r="BF5">
+        <v>0.7446653611591143</v>
+      </c>
+      <c r="BG5">
+        <v>0.7446653611591143</v>
+      </c>
+      <c r="BH5">
+        <v>0.8733969465807594</v>
+      </c>
+      <c r="BI5">
+        <v>0.9087187556481002</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9357473245449288</v>
+      </c>
+      <c r="BK5">
+        <v>0.9357473245449288</v>
+      </c>
+      <c r="BL5">
+        <v>0.9357473245449288</v>
+      </c>
+      <c r="BM5">
+        <v>0.9512420571576696</v>
+      </c>
+      <c r="BN5">
+        <v>0.9547807481579582</v>
+      </c>
+      <c r="BO5">
+        <v>0.9547807481579582</v>
+      </c>
+      <c r="BP5">
+        <v>0.9547807481579582</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9597957010697229</v>
+      </c>
+      <c r="BR5">
+        <v>0.9597957010697229</v>
+      </c>
+      <c r="BS5">
+        <v>0.9702671997910332</v>
+      </c>
+      <c r="BT5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:72">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1751,99 +3083,210 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2810248025142754</v>
+        <v>0.1974717816925822</v>
       </c>
       <c r="E6">
-        <v>0.3198166115510907</v>
+        <v>0.2194402865403582</v>
       </c>
       <c r="F6">
-        <v>0.6128123682445392</v>
+        <v>0.4534512965491555</v>
       </c>
       <c r="G6">
-        <v>0.6132545563700773</v>
+        <v>0.4743146681864765</v>
       </c>
       <c r="H6">
-        <v>0.6132545563700773</v>
+        <v>0.4859586100051396</v>
       </c>
       <c r="I6">
-        <v>0.6132545563700773</v>
+        <v>0.492060327667473</v>
       </c>
       <c r="J6">
-        <v>0.7511450268486887</v>
+        <v>0.6108122480651336</v>
       </c>
       <c r="K6">
-        <v>0.7540615422143806</v>
+        <v>0.6108122480651336</v>
       </c>
       <c r="L6">
-        <v>0.7929597827340709</v>
+        <v>0.6440588890902336</v>
       </c>
       <c r="M6">
-        <v>0.8291256288931659</v>
+        <v>0.6987135745857339</v>
       </c>
       <c r="N6">
-        <v>0.8291256288931659</v>
+        <v>0.6987135745857339</v>
       </c>
       <c r="O6">
-        <v>0.8291256288931659</v>
+        <v>0.7136501912959545</v>
       </c>
       <c r="P6">
-        <v>0.8410541739898705</v>
+        <v>0.7136501912959545</v>
       </c>
       <c r="Q6">
-        <v>0.8488083686518874</v>
+        <v>0.7799999748085565</v>
       </c>
       <c r="R6">
-        <v>0.8653215811513532</v>
+        <v>0.7799999748085565</v>
       </c>
       <c r="S6">
-        <v>0.8653215811513532</v>
+        <v>0.7799999748085565</v>
       </c>
       <c r="T6">
-        <v>0.8854087474273176</v>
+        <v>0.8219194654739834</v>
       </c>
       <c r="U6">
-        <v>0.8854087474273176</v>
+        <v>0.8219194654739834</v>
       </c>
       <c r="V6">
-        <v>0.8854087474273176</v>
+        <v>0.8219194654739834</v>
       </c>
       <c r="W6">
-        <v>0.9515878294247948</v>
+        <v>0.9406111627202918</v>
       </c>
       <c r="X6">
-        <v>0.9515878294247948</v>
+        <v>0.9466717566832251</v>
       </c>
       <c r="Y6">
-        <v>0.9515878294247948</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="Z6">
-        <v>0.9515878294247948</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AA6">
-        <v>0.9515878294247948</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AB6">
-        <v>0.9515878294247948</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AC6">
-        <v>0.9543982933974827</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AD6">
-        <v>0.9543982933974827</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AE6">
-        <v>0.9543982933974827</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AF6">
-        <v>0.9569011152194987</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AG6">
-        <v>0.9757017009789715</v>
+        <v>0.9663340813932292</v>
       </c>
       <c r="AH6">
-        <v>0.9836254744904052</v>
+        <v>0.9742844924311874</v>
       </c>
       <c r="AI6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT6">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -1862,66 +3305,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5654579581734045</v>
+        <v>0.5034095605921289</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1930,21 +3373,21 @@
         <v>850</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1953,16 +3396,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5758903903888886</v>
+        <v>0.5121573059524461</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -1971,21 +3414,21 @@
         <v>850</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -1994,16 +3437,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006542255444508</v>
+        <v>0.5195331078078836</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -2012,39 +3455,39 @@
         <v>850</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.656106094390168</v>
+        <v>0.505606616185023</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2053,21 +3496,21 @@
         <v>850</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2076,16 +3519,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6128123682445392</v>
+        <v>0.6108122480651336</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -2094,16 +3537,16 @@
         <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2121,66 +3564,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7738843030204701</v>
+        <v>0.7223085845290642</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2189,21 +3632,21 @@
         <v>850</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2212,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7225027723985461</v>
+        <v>0.7398338973861238</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -2230,21 +3673,21 @@
         <v>850</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2253,16 +3696,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006542255444508</v>
+        <v>0.7319466788609528</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -2271,39 +3714,39 @@
         <v>850</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.775338302329198</v>
+        <v>0.7446653611591143</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2312,21 +3755,21 @@
         <v>850</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2335,16 +3778,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7511450268486887</v>
+        <v>0.7136501912959545</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -2353,16 +3796,16 @@
         <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2380,66 +3823,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8122818218911096</v>
+        <v>0.8077988569777428</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2448,21 +3891,21 @@
         <v>850</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2471,16 +3914,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8468872919696665</v>
+        <v>0.8062809597220723</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -2489,21 +3932,21 @@
         <v>850</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2512,16 +3955,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8022191742372895</v>
+        <v>0.8061974245460276</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -2530,39 +3973,39 @@
         <v>850</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8233754992498827</v>
+        <v>0.8733969465807594</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2571,21 +4014,21 @@
         <v>850</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2594,16 +4037,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8291256288931659</v>
+        <v>0.8219194654739834</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -2612,16 +4055,16 @@
         <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2639,63 +4082,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.966709559264971</v>
+        <v>0.9653438711899285</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -2707,21 +4150,21 @@
         <v>850</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2730,16 +4173,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9171706927631563</v>
+        <v>0.9099049725900962</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -2748,21 +4191,21 @@
         <v>850</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2771,16 +4214,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9307458924763444</v>
+        <v>0.9618442105017284</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -2789,39 +4232,39 @@
         <v>850</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9087187556481002</v>
+      </c>
+      <c r="G5">
         <v>22</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9553882042738677</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2830,21 +4273,21 @@
         <v>850</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2859,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9515878294247948</v>
+        <v>0.9406111627202918</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -2871,16 +4314,16 @@
         <v>850</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
